--- a/Internet_Pricing_All_2023-04-14.xlsx
+++ b/Internet_Pricing_All_2023-04-14.xlsx
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="C4" s="1">
         <v>128.85</v>
